--- a/DataBase/Population query database.xlsx
+++ b/DataBase/Population query database.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="449">
   <si>
     <t>provinces</t>
   </si>
@@ -1336,13 +1336,49 @@
   </si>
   <si>
     <t>'https://http2.mlstatic.com/D_NQ_NP_635928-MLA47574733077_092021-O.webp'</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password_hash</t>
+  </si>
+  <si>
+    <t>'user'</t>
+  </si>
+  <si>
+    <t>'admin'</t>
+  </si>
+  <si>
+    <t>'Uriel'</t>
+  </si>
+  <si>
+    <t>'Alloatti'</t>
+  </si>
+  <si>
+    <t>user_rols</t>
+  </si>
+  <si>
+    <t>rol_id</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>'ualloatti@asjservicios.com'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,6 +1398,21 @@
       <sz val="10"/>
       <color rgb="FF111111"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1387,10 +1438,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1416,8 +1468,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1696,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P270"/>
+  <dimension ref="A1:S280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D260" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H269" sqref="H269:H270"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L237" sqref="L237:L238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -6142,7 +6199,7 @@
         <v>('Notebook Dell Gaming 15,6" AMD Ryzen 5', '9d1da242', 2, 1, 'https://images.fravega.com/f300/6c234aac346afbecebb11d2593d28748.jpg.webp', 1029, 'Gracias a su memoria de 8GB, su almacenamiento de 512GB y el procesador AMD Ryzen 5 disfrutarás de un gran rendimiento, eficiencia y velocidad para vivir una experiencia mucho más rápida.', '2024-01-11', GETDATE(), 1),</v>
       </c>
     </row>
-    <row r="225" spans="2:14">
+    <row r="225" spans="2:19">
       <c r="B225" s="2">
         <v>30</v>
       </c>
@@ -6181,7 +6238,7 @@
         <v>('Lenovo 14” Core i3 8GB 256GB SSD IdeaPad Slim 3', '01f28f38', 1, 1, 'https://images.fravega.com/f300/4d200697730a5f74b7ed558179362e1f.jpg.webp', 929, 'Su procesador es un Intel Core i3, que cuenta con 8 núcleos y 8 hilos. Tiene una frecuencia base de 1.8 GHz y puede alcanzar una frecuencia turbo de hasta 3.8 GHz, lo que lo hace adecuado para tareas diarias y multitarea eficiente.', '2024-01-12', GETDATE(), 1),</v>
       </c>
     </row>
-    <row r="226" spans="2:14">
+    <row r="226" spans="2:19">
       <c r="B226" s="2">
         <v>31</v>
       </c>
@@ -6220,7 +6277,7 @@
         <v>('Motorola Edge 40 Neo', '0fabff58', 2, 2, 'https://images.fravega.com/f300/0d4369708daf8dfa8819d97dec700c28.jpg.webp', 600, 'Experimentá conexiones veloces 5G gracias a la potencia del procesador y su configuración de memoria. Con 8GB de RAM y 256GB de almacenamiento interno.', '2024-01-12', GETDATE(), 1),</v>
       </c>
     </row>
-    <row r="227" spans="2:14">
+    <row r="227" spans="2:19">
       <c r="B227" s="2">
         <v>32</v>
       </c>
@@ -6259,7 +6316,7 @@
         <v>('Bolígrafo Bic Cristal Punta Media 1mm Caja X 50 Unidades', '176589ff', 3, 5, 'https://http2.mlstatic.com/D_NQ_NP_635928-MLA47574733077_092021-O.webp', 14, 'Boligrafo bic crsital caja x 50 unidades trazo medio 1 mm. escritura continua la tinta fluye desde el primer contacto con el papel.  ', '2024-01-11', GETDATE(), 1),</v>
       </c>
     </row>
-    <row r="228" spans="2:14">
+    <row r="228" spans="2:19">
       <c r="B228" s="2">
         <v>33</v>
       </c>
@@ -6298,604 +6355,513 @@
         <v>('Abrochadora Brazo Largo Para Revistas', 'dfc3902a', 3, 5, NULL, 12, 'La abrochadora de brazo largo para revistas 330 mm es una herramienta que se utiliza para unir hojas de papel, folletos o revistas. Tiene un brazo largo que le permite abarcar una gran cantidad de papel, lo que la hace ideal para revistas y otros documentos de gran tamaño.', '2024-01-11', GETDATE(), 1),</v>
       </c>
     </row>
-    <row r="232" spans="2:14">
-      <c r="B232" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="14"/>
-      <c r="F232" s="14"/>
-      <c r="G232" s="14"/>
-      <c r="H232" s="14"/>
-      <c r="I232" s="14"/>
-    </row>
-    <row r="233" spans="2:14">
-      <c r="B233" s="2" t="s">
+    <row r="231" spans="2:19">
+      <c r="B231" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="14"/>
+    </row>
+    <row r="232" spans="2:19" s="2" customFormat="1">
+      <c r="B232" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C233" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D233" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F233" s="4" t="s">
+      <c r="C232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D232" s="8"/>
+      <c r="E232" s="2" t="str">
+        <f>CONCATENATE("INSERT INTO ", B231," (",C232,") VALUES")</f>
+        <v>INSERT INTO user_rols (rol) VALUES</v>
+      </c>
+    </row>
+    <row r="233" spans="2:19" s="2" customFormat="1">
+      <c r="B233" s="2">
+        <v>1</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D233" s="8"/>
+      <c r="E233" s="2" t="str">
+        <f>CONCATENATE("(",C233,"),")</f>
+        <v>('admin'),</v>
+      </c>
+    </row>
+    <row r="236" spans="2:19">
+      <c r="B236" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C236" s="15"/>
+      <c r="D236" s="15"/>
+      <c r="E236" s="15"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="15"/>
+      <c r="H236" s="15"/>
+      <c r="I236" s="15"/>
+      <c r="J236" s="15"/>
+      <c r="K236" s="15"/>
+    </row>
+    <row r="237" spans="2:19">
+      <c r="B237" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F237" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G237" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H237" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="I237" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G233" s="4" t="s">
+      <c r="J237" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="J233" t="str">
-        <f>CONCATENATE("INSERT INTO ",B232," (",C233,", ",D233,", ",E233,", ",F233,", ",G233,") VALUES ")</f>
-        <v xml:space="preserve">INSERT INTO purchase_orders (date_arrives, requirements, suplier_id, created_at, updated_at) VALUES </v>
-      </c>
-    </row>
-    <row r="234" spans="2:14">
-      <c r="B234" s="2">
-        <v>1</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="E234">
-        <v>1</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G234" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J234" t="str">
-        <f>CONCATENATE("(",C234,", ",D234,", ",E234,", ",F234,", ",G234,"),")</f>
-        <v>('2023-11-24', 'Tocar timbre al arribar.', 1, '2023-11-19', '2023-11-19'),</v>
-      </c>
-    </row>
-    <row r="235" spans="2:14">
-      <c r="B235" s="2">
-        <v>2</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="D235" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E235" s="2">
-        <v>2</v>
-      </c>
-      <c r="F235" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G235" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2" t="str">
-        <f>CONCATENATE("(",C235,", ",D235,", ",E235,", ",F235,", ",G235,"),")</f>
-        <v>('2023-12-07', 'Llamar al llegar.', 2, '2023-12-01', '2023-12-01'),</v>
-      </c>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="M235" s="2"/>
-    </row>
-    <row r="236" spans="2:14">
-      <c r="B236" s="2">
-        <v>3</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="D236" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E236" s="2">
-        <v>8</v>
-      </c>
-      <c r="F236" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="G236" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="H236" s="2"/>
-      <c r="I236" s="2"/>
-      <c r="J236" s="2" t="str">
-        <f>CONCATENATE("(",C236,", ",D236,", ",E236,", ",F236,", ",G236,"),")</f>
-        <v>('2023-12-20', 'Pasar por la mañana.', 8, '2023-12-16', '2023-12-16'),</v>
-      </c>
-      <c r="K236" s="2"/>
-      <c r="L236" s="2"/>
-      <c r="M236" s="12"/>
-    </row>
-    <row r="237" spans="2:14">
-      <c r="B237" s="2">
-        <v>4</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="E237" s="2">
-        <v>9</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G237" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="H237" s="2"/>
-      <c r="I237" s="2"/>
-      <c r="J237" s="2" t="str">
-        <f>CONCATENATE("(",C237,", ",D237,", ",E237,", ",F237,", ",G237,"),")</f>
-        <v>('2023-12-30', '-', 9, '2023-12-25', '2023-12-25'),</v>
-      </c>
-      <c r="K237" s="2"/>
-      <c r="L237" s="2"/>
+      <c r="L237" s="2" t="str">
+        <f>CONCATENATE("INSERT INTO ",B236," (",C237,", ",D237,", ",E237,", ",F237,", ",G237,", ",H237,", ",I237,", ",J237,") VALUES ")</f>
+        <v xml:space="preserve">INSERT INTO users (username, password_hash, email, name, surname, rol_id, created_at, updated_at) VALUES </v>
+      </c>
       <c r="M237" s="2"/>
-    </row>
-    <row r="238" spans="2:14">
+      <c r="S237" s="6"/>
+    </row>
+    <row r="238" spans="2:19">
       <c r="B238" s="2">
-        <v>5</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>388</v>
+        <v>1</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="E238" s="2">
-        <v>7</v>
+        <v>442</v>
+      </c>
+      <c r="E238" s="16" t="s">
+        <v>448</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="H238" s="2"/>
-      <c r="I238" s="2"/>
-      <c r="J238" s="2" t="str">
-        <f>CONCATENATE("(",C238,", ",D238,", ",E238,", ",F238,", ",G238,"),")</f>
-        <v>('2024-01-07', 'Reja Negra.', 7, '2024-01-03', '2024-01-03'),</v>
-      </c>
-      <c r="K238" s="2"/>
-      <c r="L238" s="2"/>
-      <c r="M238" s="2"/>
-    </row>
-    <row r="239" spans="2:14">
-      <c r="B239" s="2">
-        <v>6</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>402</v>
-      </c>
-      <c r="E239" s="2">
-        <v>9</v>
-      </c>
-      <c r="F239" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G239" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2" t="str">
-        <f>CONCATENATE("(",C239,", ",D239,", ",E239,", ",F239,", ",G239,"),")</f>
-        <v>('2024-01-17', 'Timbre de arriba.', 9, '2024-01-10', '2024-01-10'),</v>
-      </c>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2"/>
-    </row>
-    <row r="240" spans="2:14">
-      <c r="B240" s="2">
-        <v>7</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="E240" s="2">
-        <v>1</v>
-      </c>
-      <c r="F240" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="G240" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="H240" s="2"/>
-      <c r="I240" s="2"/>
-      <c r="J240" s="2" t="str">
-        <f>CONCATENATE("(",C240,", ",D240,", ",E240,", ",F240,", ",G240,"),")</f>
-        <v>('2024-01-15', 'Llamar al llegar.', 1, '2024-01-11', '2024-01-11'),</v>
-      </c>
-      <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
-      <c r="M240" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="H238" s="2">
+        <v>1</v>
+      </c>
+      <c r="I238" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J238" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="L238" s="2" t="str">
+        <f>CONCATENATE("(",C238,", ",D238,", ",E238,", ",F238,", ",G238,", ",H238,", ",I238,", ",J238,"),")</f>
+        <v>('user', 'admin', 'ualloatti@asjservicios.com', 'Uriel', 'Alloatti', 1, '2023-11-12', '2023-11-12'),</v>
+      </c>
+      <c r="M238" s="12"/>
+    </row>
+    <row r="239" spans="2:19" s="2" customFormat="1">
+      <c r="D239" s="8"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="12"/>
+      <c r="M239" s="12"/>
+    </row>
+    <row r="240" spans="2:19" s="2" customFormat="1">
+      <c r="D240" s="8"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="12"/>
+      <c r="M240" s="12"/>
     </row>
     <row r="241" spans="2:13">
-      <c r="B241" s="2">
-        <v>8</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="E241" s="2">
-        <v>5</v>
-      </c>
-      <c r="F241" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G241" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2" t="str">
-        <f>CONCATENATE("(",C241,", ",D241,", ",E241,", ",F241,", ",G241,"),")</f>
-        <v>('2024-01-16', 'Pasar por la mañana.', 5, '2024-01-12', '2024-01-12'),</v>
-      </c>
       <c r="K241" s="2"/>
       <c r="L241" s="2"/>
       <c r="M241" s="2"/>
     </row>
     <row r="242" spans="2:13">
-      <c r="B242" s="2">
-        <v>9</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="E242" s="2">
-        <v>4</v>
-      </c>
-      <c r="F242" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G242" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
-      <c r="J242" s="2" t="str">
-        <f>CONCATENATE("(",C242,", ",D242,", ",E242,", ",F242,", ",G242,"),")</f>
-        <v>('2024-01-17', '-', 4, '2024-01-12', '2024-01-12'),</v>
-      </c>
+      <c r="B242" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C242" s="14"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="14"/>
+      <c r="F242" s="14"/>
+      <c r="G242" s="14"/>
+      <c r="H242" s="14"/>
+      <c r="I242" s="14"/>
+      <c r="J242" s="14"/>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
       <c r="M242" s="2"/>
     </row>
     <row r="243" spans="2:13">
-      <c r="B243" s="2">
-        <v>10</v>
-      </c>
-      <c r="C243" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="E243" s="2">
-        <v>3</v>
-      </c>
-      <c r="F243" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="G243" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="H243" s="2"/>
-      <c r="I243" s="2"/>
-      <c r="J243" s="2" t="str">
-        <f>CONCATENATE("(",C243,", ",D243,", ",E243,", ",F243,", ",G243,"),")</f>
-        <v>('2024-01-17', '-', 3, '2024-01-12', '2024-01-12'),</v>
+      <c r="B243" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E243" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G243" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H243" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="J243" t="str">
+        <f>CONCATENATE("INSERT INTO ",B242," (",C243,", ",D243,", ",E243,", ",F243,", ",G243,", ",H243,") VALUES ")</f>
+        <v xml:space="preserve">INSERT INTO purchase_orders (date_arrives, requirements, suplier_id, user_id, created_at, updated_at) VALUES </v>
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
       <c r="M243" s="2"/>
     </row>
     <row r="244" spans="2:13">
-      <c r="C244" s="2"/>
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
-      <c r="I244" s="8"/>
-      <c r="J244" s="2"/>
+      <c r="B244" s="2">
+        <v>1</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J244" t="str">
+        <f>CONCATENATE("(",C244,", ",D244,", ",E244,", ",F244,", ",G244,", ",H244,"),")</f>
+        <v>('2023-11-24', 'Tocar timbre al arribar.', 1, 1, '2023-11-19', '2023-11-19'),</v>
+      </c>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
       <c r="M244" s="2"/>
     </row>
     <row r="245" spans="2:13">
-      <c r="C245" s="2"/>
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2"/>
-      <c r="H245" s="2"/>
+      <c r="B245" s="2">
+        <v>2</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E245" s="2">
+        <v>2</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="I245" s="2"/>
-      <c r="J245" s="2"/>
+      <c r="J245" s="2" t="str">
+        <f t="shared" ref="J245:J253" si="11">CONCATENATE("(",C245,", ",D245,", ",E245,", ",F245,", ",G245,", ",H245,"),")</f>
+        <v>('2023-12-07', 'Llamar al llegar.', 2, 1, '2023-12-01', '2023-12-01'),</v>
+      </c>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
       <c r="M245" s="2"/>
     </row>
     <row r="246" spans="2:13">
-      <c r="B246" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="C246" s="13"/>
-      <c r="D246" s="13"/>
-      <c r="E246" s="13"/>
-      <c r="F246" s="13"/>
-      <c r="G246" s="13"/>
-      <c r="H246" s="13"/>
+      <c r="B246" s="2">
+        <v>3</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E246" s="2">
+        <v>8</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>380</v>
+      </c>
       <c r="I246" s="2"/>
-      <c r="J246" s="2"/>
+      <c r="J246" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>('2023-12-20', 'Pasar por la mañana.', 8, 1, '2023-12-16', '2023-12-16'),</v>
+      </c>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
       <c r="M246" s="2"/>
     </row>
     <row r="247" spans="2:13">
-      <c r="B247" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D247" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="E247" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G247" s="2"/>
-      <c r="H247" s="2" t="str">
-        <f>CONCATENATE("INSERT INTO ",B246, " (",C247,", ",D247,", ",E247,", ",F247,") VALUES ")</f>
-        <v xml:space="preserve">INSERT INTO purchase_products (purchase_id, product_id, price, quantity) VALUES </v>
+      <c r="B247" s="2">
+        <v>4</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E247" s="2">
+        <v>9</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="I247" s="2"/>
-      <c r="J247" s="2"/>
+      <c r="J247" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>('2023-12-30', '-', 9, 1, '2023-12-25', '2023-12-25'),</v>
+      </c>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
       <c r="M247" s="2"/>
     </row>
     <row r="248" spans="2:13">
       <c r="B248" s="2">
-        <v>1</v>
-      </c>
-      <c r="C248" s="2">
-        <v>1</v>
-      </c>
-      <c r="D248" s="8">
-        <v>1</v>
-      </c>
-      <c r="E248" s="8">
-        <v>715</v>
-      </c>
-      <c r="F248" s="8">
-        <v>2</v>
-      </c>
-      <c r="G248" s="2"/>
-      <c r="H248" s="2" t="str">
-        <f t="shared" ref="H248:H270" si="11">CONCATENATE("(",C248,", ",D248,", ",E248,", ",F248,"),")</f>
-        <v>(1, 1, 715, 2),</v>
+        <v>5</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="E248" s="2">
+        <v>7</v>
+      </c>
+      <c r="F248" s="2">
+        <v>1</v>
+      </c>
+      <c r="G248" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="I248" s="2"/>
-      <c r="J248" s="2"/>
+      <c r="J248" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>('2024-01-07', 'Reja Negra.', 7, 1, '2024-01-03', '2024-01-03'),</v>
+      </c>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
       <c r="M248" s="2"/>
     </row>
     <row r="249" spans="2:13">
       <c r="B249" s="2">
-        <v>2</v>
-      </c>
-      <c r="C249" s="2">
-        <v>2</v>
-      </c>
-      <c r="D249" s="8">
-        <v>3</v>
-      </c>
-      <c r="E249" s="8">
-        <v>566</v>
-      </c>
-      <c r="F249" s="8">
-        <v>1</v>
-      </c>
-      <c r="G249" s="2"/>
-      <c r="H249" s="2" t="str">
+        <v>6</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="E249" s="2">
+        <v>9</v>
+      </c>
+      <c r="F249" s="2">
+        <v>1</v>
+      </c>
+      <c r="G249" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I249" s="2"/>
+      <c r="J249" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>(2, 3, 566, 1),</v>
-      </c>
-      <c r="I249" s="2"/>
-      <c r="J249" s="2"/>
+        <v>('2024-01-17', 'Timbre de arriba.', 9, 1, '2024-01-10', '2024-01-10'),</v>
+      </c>
       <c r="K249" s="2"/>
       <c r="L249" s="2"/>
       <c r="M249" s="2"/>
     </row>
     <row r="250" spans="2:13">
       <c r="B250" s="2">
-        <v>3</v>
-      </c>
-      <c r="C250" s="2">
-        <v>2</v>
-      </c>
-      <c r="D250" s="8">
         <v>7</v>
       </c>
-      <c r="E250" s="8">
-        <v>269</v>
-      </c>
-      <c r="F250" s="8">
-        <v>3</v>
-      </c>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2" t="str">
+      <c r="C250" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="E250" s="2">
+        <v>1</v>
+      </c>
+      <c r="F250" s="2">
+        <v>1</v>
+      </c>
+      <c r="G250" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>(2, 7, 269, 3),</v>
-      </c>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2"/>
+        <v>('2024-01-15', 'Llamar al llegar.', 1, 1, '2024-01-11', '2024-01-11'),</v>
+      </c>
       <c r="K250" s="2"/>
       <c r="L250" s="2"/>
       <c r="M250" s="2"/>
     </row>
     <row r="251" spans="2:13">
       <c r="B251" s="2">
-        <v>4</v>
-      </c>
-      <c r="C251" s="2">
-        <v>3</v>
-      </c>
-      <c r="D251" s="8">
-        <v>12</v>
-      </c>
-      <c r="E251" s="8">
-        <v>18</v>
-      </c>
-      <c r="F251" s="8">
-        <v>4</v>
-      </c>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2" t="str">
+        <v>8</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="E251" s="2">
+        <v>5</v>
+      </c>
+      <c r="F251" s="2">
+        <v>1</v>
+      </c>
+      <c r="G251" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>(3, 12, 18, 4),</v>
-      </c>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2"/>
+        <v>('2024-01-16', 'Pasar por la mañana.', 5, 1, '2024-01-12', '2024-01-12'),</v>
+      </c>
       <c r="K251" s="2"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2"/>
     </row>
     <row r="252" spans="2:13">
       <c r="B252" s="2">
-        <v>5</v>
-      </c>
-      <c r="C252" s="2">
-        <v>3</v>
-      </c>
-      <c r="D252" s="8">
-        <v>15</v>
-      </c>
-      <c r="E252" s="8">
-        <v>17</v>
-      </c>
-      <c r="F252" s="8">
-        <v>5</v>
-      </c>
-      <c r="G252" s="2"/>
-      <c r="H252" s="2" t="str">
+        <v>9</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E252" s="2">
+        <v>4</v>
+      </c>
+      <c r="F252" s="2">
+        <v>1</v>
+      </c>
+      <c r="G252" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>(3, 15, 17, 5),</v>
-      </c>
-      <c r="I252" s="2"/>
-      <c r="J252" s="2"/>
+        <v>('2024-01-17', '-', 4, 1, '2024-01-12', '2024-01-12'),</v>
+      </c>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2"/>
     </row>
     <row r="253" spans="2:13">
       <c r="B253" s="2">
-        <v>6</v>
-      </c>
-      <c r="C253" s="2">
-        <v>4</v>
-      </c>
-      <c r="D253" s="2">
-        <v>5</v>
-      </c>
-      <c r="E253" s="8">
-        <v>130</v>
-      </c>
-      <c r="F253" s="8">
+        <v>10</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E253" s="2">
         <v>3</v>
       </c>
-      <c r="G253" s="2"/>
-      <c r="H253" s="2" t="str">
+      <c r="F253" s="2">
+        <v>1</v>
+      </c>
+      <c r="G253" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2" t="str">
         <f t="shared" si="11"/>
-        <v>(4, 5, 130, 3),</v>
-      </c>
-      <c r="I253" s="2"/>
-      <c r="J253" s="2"/>
+        <v>('2024-01-17', '-', 3, 1, '2024-01-12', '2024-01-12'),</v>
+      </c>
       <c r="K253" s="2"/>
       <c r="L253" s="2"/>
       <c r="M253" s="2"/>
     </row>
     <row r="254" spans="2:13">
-      <c r="B254" s="2">
-        <v>7</v>
-      </c>
-      <c r="C254" s="2">
-        <v>4</v>
-      </c>
-      <c r="D254" s="2">
-        <v>10</v>
-      </c>
-      <c r="E254" s="8">
-        <v>1100</v>
-      </c>
-      <c r="F254" s="8">
-        <v>1</v>
-      </c>
+      <c r="C254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
       <c r="G254" s="2"/>
-      <c r="H254" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(4, 10, 1100, 1),</v>
-      </c>
-      <c r="I254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="8"/>
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
       <c r="L254" s="2"/>
       <c r="M254" s="2"/>
     </row>
     <row r="255" spans="2:13">
-      <c r="B255" s="2">
-        <v>8</v>
-      </c>
-      <c r="C255" s="2">
-        <v>4</v>
-      </c>
-      <c r="D255" s="2">
-        <v>11</v>
-      </c>
-      <c r="E255" s="8">
-        <v>330</v>
-      </c>
-      <c r="F255" s="8">
-        <v>2</v>
-      </c>
+      <c r="C255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
       <c r="G255" s="2"/>
-      <c r="H255" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(4, 11, 330, 2),</v>
-      </c>
+      <c r="H255" s="2"/>
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
@@ -6903,26 +6869,15 @@
       <c r="M255" s="2"/>
     </row>
     <row r="256" spans="2:13">
-      <c r="B256" s="2">
-        <v>9</v>
-      </c>
-      <c r="C256" s="2">
-        <v>5</v>
-      </c>
-      <c r="D256" s="2">
-        <v>4</v>
-      </c>
-      <c r="E256" s="8">
-        <v>850</v>
-      </c>
-      <c r="F256" s="8">
-        <v>2</v>
-      </c>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(5, 4, 850, 2),</v>
-      </c>
+      <c r="B256" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C256" s="13"/>
+      <c r="D256" s="13"/>
+      <c r="E256" s="13"/>
+      <c r="F256" s="13"/>
+      <c r="G256" s="13"/>
+      <c r="H256" s="13"/>
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
@@ -6930,25 +6885,25 @@
       <c r="M256" s="2"/>
     </row>
     <row r="257" spans="2:13">
-      <c r="B257" s="2">
-        <v>10</v>
-      </c>
-      <c r="C257" s="2">
-        <v>5</v>
-      </c>
-      <c r="D257" s="2">
-        <v>9</v>
-      </c>
-      <c r="E257" s="8">
-        <v>2100</v>
-      </c>
-      <c r="F257" s="8">
-        <v>1</v>
+      <c r="B257" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="G257" s="2"/>
       <c r="H257" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(5, 9, 2100, 1),</v>
+        <f>CONCATENATE("INSERT INTO ",B256, " (",C257,", ",D257,", ",E257,", ",F257,") VALUES ")</f>
+        <v xml:space="preserve">INSERT INTO purchase_products (purchase_id, product_id, price, quantity) VALUES </v>
       </c>
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
@@ -6958,24 +6913,24 @@
     </row>
     <row r="258" spans="2:13">
       <c r="B258" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C258" s="2">
-        <v>5</v>
-      </c>
-      <c r="D258" s="2">
-        <v>22</v>
+        <v>1</v>
+      </c>
+      <c r="D258" s="8">
+        <v>1</v>
       </c>
       <c r="E258" s="8">
-        <v>78</v>
+        <v>715</v>
       </c>
       <c r="F258" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G258" s="2"/>
       <c r="H258" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(5, 22, 78, 3),</v>
+        <f t="shared" ref="H258:H280" si="12">CONCATENATE("(",C258,", ",D258,", ",E258,", ",F258,"),")</f>
+        <v>(1, 1, 715, 2),</v>
       </c>
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
@@ -6985,24 +6940,24 @@
     </row>
     <row r="259" spans="2:13">
       <c r="B259" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C259" s="2">
-        <v>6</v>
-      </c>
-      <c r="D259" s="2">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D259" s="8">
+        <v>3</v>
       </c>
       <c r="E259" s="8">
-        <v>149</v>
+        <v>566</v>
       </c>
       <c r="F259" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G259" s="2"/>
       <c r="H259" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(6, 5, 149, 2),</v>
+        <f t="shared" si="12"/>
+        <v>(2, 3, 566, 1),</v>
       </c>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
@@ -7012,24 +6967,24 @@
     </row>
     <row r="260" spans="2:13">
       <c r="B260" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C260" s="2">
-        <v>6</v>
-      </c>
-      <c r="D260" s="2">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="D260" s="8">
+        <v>7</v>
       </c>
       <c r="E260" s="8">
-        <v>1299</v>
+        <v>269</v>
       </c>
       <c r="F260" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G260" s="2"/>
       <c r="H260" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(6, 10, 1299, 1),</v>
+        <f t="shared" si="12"/>
+        <v>(2, 7, 269, 3),</v>
       </c>
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
@@ -7039,24 +6994,24 @@
     </row>
     <row r="261" spans="2:13">
       <c r="B261" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C261" s="2">
-        <v>6</v>
-      </c>
-      <c r="D261" s="2">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="D261" s="8">
+        <v>12</v>
       </c>
       <c r="E261" s="8">
-        <v>345</v>
+        <v>18</v>
       </c>
       <c r="F261" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G261" s="2"/>
       <c r="H261" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(6, 11, 345, 3),</v>
+        <f t="shared" si="12"/>
+        <v>(3, 12, 18, 4),</v>
       </c>
       <c r="I261" s="2"/>
       <c r="J261" s="2"/>
@@ -7066,24 +7021,24 @@
     </row>
     <row r="262" spans="2:13">
       <c r="B262" s="2">
+        <v>5</v>
+      </c>
+      <c r="C262" s="2">
+        <v>3</v>
+      </c>
+      <c r="D262" s="8">
         <v>15</v>
       </c>
-      <c r="C262" s="2">
-        <v>6</v>
-      </c>
-      <c r="D262" s="2">
-        <v>23</v>
-      </c>
       <c r="E262" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F262" s="8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G262" s="2"/>
       <c r="H262" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(6, 23, 8, 8),</v>
+        <f t="shared" si="12"/>
+        <v>(3, 15, 17, 5),</v>
       </c>
       <c r="I262" s="2"/>
       <c r="J262" s="2"/>
@@ -7093,24 +7048,24 @@
     </row>
     <row r="263" spans="2:13">
       <c r="B263" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C263" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D263" s="2">
-        <v>25</v>
-      </c>
-      <c r="E263" s="2">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="E263" s="8">
+        <v>130</v>
       </c>
       <c r="F263" s="8">
         <v>3</v>
       </c>
       <c r="G263" s="2"/>
       <c r="H263" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(7, 25, 19, 3),</v>
+        <f t="shared" si="12"/>
+        <v>(4, 5, 130, 3),</v>
       </c>
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
@@ -7120,24 +7075,24 @@
     </row>
     <row r="264" spans="2:13">
       <c r="B264" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C264" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D264" s="2">
-        <v>17</v>
-      </c>
-      <c r="E264" s="2">
-        <v>59</v>
+        <v>10</v>
+      </c>
+      <c r="E264" s="8">
+        <v>1100</v>
       </c>
       <c r="F264" s="8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G264" s="2"/>
       <c r="H264" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(8, 17, 59, 12),</v>
+        <f t="shared" si="12"/>
+        <v>(4, 10, 1100, 1),</v>
       </c>
       <c r="I264" s="2"/>
       <c r="J264" s="2"/>
@@ -7147,24 +7102,24 @@
     </row>
     <row r="265" spans="2:13">
       <c r="B265" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C265" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D265" s="2">
-        <v>18</v>
-      </c>
-      <c r="E265" s="2">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="E265" s="8">
+        <v>330</v>
       </c>
       <c r="F265" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G265" s="2"/>
       <c r="H265" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(8, 18, 79, 5),</v>
+        <f t="shared" si="12"/>
+        <v>(4, 11, 330, 2),</v>
       </c>
       <c r="I265" s="2"/>
       <c r="J265" s="2"/>
@@ -7174,24 +7129,24 @@
     </row>
     <row r="266" spans="2:13">
       <c r="B266" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C266" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D266" s="2">
-        <v>8</v>
-      </c>
-      <c r="E266" s="2">
-        <v>119</v>
+        <v>4</v>
+      </c>
+      <c r="E266" s="8">
+        <v>850</v>
       </c>
       <c r="F266" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G266" s="2"/>
       <c r="H266" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(9, 8, 119, 3),</v>
+        <f t="shared" si="12"/>
+        <v>(5, 4, 850, 2),</v>
       </c>
       <c r="I266" s="2"/>
       <c r="J266" s="2"/>
@@ -7201,113 +7156,373 @@
     </row>
     <row r="267" spans="2:13">
       <c r="B267" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C267" s="2">
+        <v>5</v>
+      </c>
+      <c r="D267" s="2">
         <v>9</v>
       </c>
-      <c r="D267" s="2">
-        <v>21</v>
-      </c>
-      <c r="E267" s="2">
-        <v>14</v>
+      <c r="E267" s="8">
+        <v>2100</v>
       </c>
       <c r="F267" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G267" s="2"/>
       <c r="H267" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(9, 21, 14, 2),</v>
+        <f t="shared" si="12"/>
+        <v>(5, 9, 2100, 1),</v>
       </c>
       <c r="I267" s="2"/>
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
+      <c r="L267" s="2"/>
+      <c r="M267" s="2"/>
     </row>
     <row r="268" spans="2:13">
       <c r="B268" s="2">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C268" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D268" s="2">
-        <v>28</v>
-      </c>
-      <c r="E268" s="2">
-        <v>949</v>
+        <v>22</v>
+      </c>
+      <c r="E268" s="8">
+        <v>78</v>
       </c>
       <c r="F268" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G268" s="2"/>
       <c r="H268" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>(9, 28, 949, 1),</v>
+        <f t="shared" si="12"/>
+        <v>(5, 22, 78, 3),</v>
       </c>
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
+      <c r="L268" s="2"/>
+      <c r="M268" s="2"/>
     </row>
     <row r="269" spans="2:13">
       <c r="B269" s="2">
-        <v>22</v>
-      </c>
-      <c r="C269">
-        <v>10</v>
-      </c>
-      <c r="D269" s="8">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="C269" s="2">
+        <v>6</v>
+      </c>
+      <c r="D269" s="2">
+        <v>5</v>
       </c>
       <c r="E269" s="8">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="F269" s="8">
-        <v>3</v>
-      </c>
-      <c r="H269" t="str">
-        <f t="shared" si="11"/>
-        <v>(10, 32, 14, 3),</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G269" s="2"/>
+      <c r="H269" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(6, 5, 149, 2),</v>
+      </c>
+      <c r="I269" s="2"/>
+      <c r="J269" s="2"/>
+      <c r="K269" s="2"/>
+      <c r="L269" s="2"/>
+      <c r="M269" s="2"/>
     </row>
     <row r="270" spans="2:13">
       <c r="B270" s="2">
+        <v>13</v>
+      </c>
+      <c r="C270" s="2">
+        <v>6</v>
+      </c>
+      <c r="D270" s="2">
+        <v>10</v>
+      </c>
+      <c r="E270" s="8">
+        <v>1299</v>
+      </c>
+      <c r="F270" s="8">
+        <v>1</v>
+      </c>
+      <c r="G270" s="2"/>
+      <c r="H270" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(6, 10, 1299, 1),</v>
+      </c>
+      <c r="I270" s="2"/>
+      <c r="J270" s="2"/>
+      <c r="K270" s="2"/>
+      <c r="L270" s="2"/>
+      <c r="M270" s="2"/>
+    </row>
+    <row r="271" spans="2:13">
+      <c r="B271" s="2">
+        <v>14</v>
+      </c>
+      <c r="C271" s="2">
+        <v>6</v>
+      </c>
+      <c r="D271" s="2">
+        <v>11</v>
+      </c>
+      <c r="E271" s="8">
+        <v>345</v>
+      </c>
+      <c r="F271" s="8">
+        <v>3</v>
+      </c>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(6, 11, 345, 3),</v>
+      </c>
+      <c r="I271" s="2"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+    </row>
+    <row r="272" spans="2:13">
+      <c r="B272" s="2">
+        <v>15</v>
+      </c>
+      <c r="C272" s="2">
+        <v>6</v>
+      </c>
+      <c r="D272" s="2">
         <v>23</v>
       </c>
-      <c r="C270">
+      <c r="E272" s="8">
+        <v>8</v>
+      </c>
+      <c r="F272" s="8">
+        <v>8</v>
+      </c>
+      <c r="G272" s="2"/>
+      <c r="H272" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(6, 23, 8, 8),</v>
+      </c>
+      <c r="I272" s="2"/>
+      <c r="J272" s="2"/>
+      <c r="K272" s="2"/>
+    </row>
+    <row r="273" spans="2:10">
+      <c r="B273" s="2">
+        <v>16</v>
+      </c>
+      <c r="C273" s="2">
+        <v>7</v>
+      </c>
+      <c r="D273" s="2">
+        <v>25</v>
+      </c>
+      <c r="E273" s="2">
+        <v>19</v>
+      </c>
+      <c r="F273" s="8">
+        <v>3</v>
+      </c>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(7, 25, 19, 3),</v>
+      </c>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+    </row>
+    <row r="274" spans="2:10">
+      <c r="B274" s="2">
+        <v>17</v>
+      </c>
+      <c r="C274" s="2">
+        <v>8</v>
+      </c>
+      <c r="D274" s="2">
+        <v>17</v>
+      </c>
+      <c r="E274" s="2">
+        <v>59</v>
+      </c>
+      <c r="F274" s="8">
+        <v>12</v>
+      </c>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(8, 17, 59, 12),</v>
+      </c>
+      <c r="I274" s="2"/>
+      <c r="J274" s="2"/>
+    </row>
+    <row r="275" spans="2:10">
+      <c r="B275" s="2">
+        <v>18</v>
+      </c>
+      <c r="C275" s="2">
+        <v>8</v>
+      </c>
+      <c r="D275" s="2">
+        <v>18</v>
+      </c>
+      <c r="E275" s="2">
+        <v>79</v>
+      </c>
+      <c r="F275" s="8">
+        <v>5</v>
+      </c>
+      <c r="G275" s="2"/>
+      <c r="H275" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(8, 18, 79, 5),</v>
+      </c>
+      <c r="I275" s="2"/>
+      <c r="J275" s="2"/>
+    </row>
+    <row r="276" spans="2:10">
+      <c r="B276" s="2">
+        <v>19</v>
+      </c>
+      <c r="C276" s="2">
+        <v>9</v>
+      </c>
+      <c r="D276" s="2">
+        <v>8</v>
+      </c>
+      <c r="E276" s="2">
+        <v>119</v>
+      </c>
+      <c r="F276" s="8">
+        <v>3</v>
+      </c>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(9, 8, 119, 3),</v>
+      </c>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2"/>
+    </row>
+    <row r="277" spans="2:10">
+      <c r="B277" s="2">
+        <v>20</v>
+      </c>
+      <c r="C277" s="2">
+        <v>9</v>
+      </c>
+      <c r="D277" s="2">
+        <v>21</v>
+      </c>
+      <c r="E277" s="2">
+        <v>14</v>
+      </c>
+      <c r="F277" s="8">
+        <v>2</v>
+      </c>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(9, 21, 14, 2),</v>
+      </c>
+      <c r="I277" s="2"/>
+      <c r="J277" s="2"/>
+    </row>
+    <row r="278" spans="2:10">
+      <c r="B278" s="2">
+        <v>21</v>
+      </c>
+      <c r="C278" s="2">
+        <v>9</v>
+      </c>
+      <c r="D278" s="2">
+        <v>28</v>
+      </c>
+      <c r="E278" s="2">
+        <v>949</v>
+      </c>
+      <c r="F278" s="8">
+        <v>1</v>
+      </c>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(9, 28, 949, 1),</v>
+      </c>
+      <c r="I278" s="2"/>
+      <c r="J278" s="2"/>
+    </row>
+    <row r="279" spans="2:10">
+      <c r="B279" s="2">
+        <v>22</v>
+      </c>
+      <c r="C279" s="2">
         <v>10</v>
       </c>
-      <c r="D270" s="8">
+      <c r="D279" s="8">
+        <v>32</v>
+      </c>
+      <c r="E279" s="8">
+        <v>14</v>
+      </c>
+      <c r="F279" s="8">
+        <v>3</v>
+      </c>
+      <c r="G279" s="2"/>
+      <c r="H279" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>(10, 32, 14, 3),</v>
+      </c>
+      <c r="I279" s="2"/>
+      <c r="J279" s="2"/>
+    </row>
+    <row r="280" spans="2:10">
+      <c r="B280" s="2">
+        <v>23</v>
+      </c>
+      <c r="C280" s="2">
+        <v>10</v>
+      </c>
+      <c r="D280" s="8">
         <v>33</v>
       </c>
-      <c r="E270" s="8">
+      <c r="E280" s="8">
         <v>12</v>
       </c>
-      <c r="F270" s="8">
+      <c r="F280" s="8">
         <v>2</v>
       </c>
-      <c r="H270" t="str">
-        <f t="shared" si="11"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2" t="str">
+        <f t="shared" si="12"/>
         <v>(10, 33, 12, 2),</v>
       </c>
+      <c r="I280" s="2"/>
+      <c r="J280" s="2"/>
     </row>
   </sheetData>
   <sortState ref="C1:D76">
     <sortCondition ref="C1:C76"/>
     <sortCondition ref="D1:D76"/>
   </sortState>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="B242:J242"/>
+    <mergeCell ref="B165:I165"/>
+    <mergeCell ref="B127:F127"/>
+    <mergeCell ref="B151:I151"/>
+    <mergeCell ref="B179:P179"/>
+    <mergeCell ref="B194:N194"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="B236:K236"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B165:I165"/>
-    <mergeCell ref="B127:F127"/>
-    <mergeCell ref="B151:I151"/>
-    <mergeCell ref="B179:P179"/>
-    <mergeCell ref="B194:N194"/>
-    <mergeCell ref="B232:I232"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
